--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value932.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value932.xlsx
@@ -354,7 +354,7 @@
         <v>2.30600134424145</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.613092466191218</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value932.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value932.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.468367542209956</v>
+        <v>1.109582662582397</v>
       </c>
       <c r="B1">
-        <v>2.30600134424145</v>
+        <v>1.998434662818909</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.613092466191218</v>
+        <v>0.9894780516624451</v>
       </c>
       <c r="E1">
-        <v>0.5838396985140515</v>
+        <v>1.083810567855835</v>
       </c>
     </row>
   </sheetData>
